--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.020921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.020921.xlsx_with_dialog_acts.xlsx
@@ -1529,12 +1529,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3923,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5489,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7463,12 +7463,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7673,12 +7673,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7755,12 +7755,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7839,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8259,12 +8259,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9061,12 +9061,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9355,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9565,12 +9565,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10409,12 +10409,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10955,12 +10955,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12257,12 +12257,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12635,12 +12635,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12715,12 +12715,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13359,12 +13359,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13559,12 +13559,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13639,12 +13639,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13679,12 +13679,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13719,12 +13719,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13839,12 +13839,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14119,12 +14119,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14479,12 +14479,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14719,12 +14719,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14999,12 +14999,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15119,12 +15119,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15399,12 +15399,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16367,12 +16367,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16727,12 +16727,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16767,12 +16767,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16887,12 +16887,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17611,12 +17611,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18055,12 +18055,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18379,12 +18379,12 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18939,12 +18939,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19099,12 +19099,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19339,12 +19339,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19379,12 +19379,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19659,12 +19659,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20539,12 +20539,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21227,12 +21227,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21267,12 +21267,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21551,12 +21551,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21671,12 +21671,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21711,12 +21711,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21751,12 +21751,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22109,12 +22109,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22509,12 +22509,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23589,12 +23589,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23989,12 +23989,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24557,12 +24557,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24837,12 +24837,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24957,12 +24957,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25157,12 +25157,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25197,12 +25197,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25717,12 +25717,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26121,12 +26121,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26281,12 +26281,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26441,12 +26441,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27601,12 +27601,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27681,12 +27681,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27801,12 +27801,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28001,12 +28001,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
